--- a/ig/nr-update-sas/all-profiles.xlsx
+++ b/ig/nr-update-sas/all-profiles.xlsx
@@ -1194,7 +1194,7 @@
     <t>http://sas.fr/fhir/StructureDefinition/FrAppointmentSAS</t>
   </si>
   <si>
-    <t>2023-11-02T17:23:22+00:00</t>
+    <t>2023-11-02T17:30:49+00:00</t>
   </si>
   <si>
     <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>

--- a/ig/nr-update-sas/all-profiles.xlsx
+++ b/ig/nr-update-sas/all-profiles.xlsx
@@ -1302,7 +1302,7 @@
     <t>http://sas.fr/fhir/StructureDefinition/FrAppointmentSAS</t>
   </si>
   <si>
-    <t>2023-11-07T17:28:35+00:00</t>
+    <t>2023-11-08T10:08:42+00:00</t>
   </si>
   <si>
     <t>Profil de Appointment, dérivé de FrAppointment, pour le cas d'usage prise de RDV de la plateforme SAS (Service d'accès aux soins)</t>
